--- a/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kurzusok\webfejlesztes\_követelmények2025\Véglegesítés\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csabasoos/Desktop/elte/2. felev/web/beadando/honlap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF5C72B-6023-408C-A80B-9AF5F54535CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936C546B-F49C-6D4F-AA69-43B55E85A8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
   <si>
     <t>Neved:</t>
   </si>
@@ -611,6 +611,15 @@
   </si>
   <si>
     <t>Web-fejlesztés kurzus beadandó feladata</t>
+  </si>
+  <si>
+    <t>Soós Csaba</t>
+  </si>
+  <si>
+    <t>AZXX1Z</t>
+  </si>
+  <si>
+    <t>azxx1z@inf.elte.hu</t>
   </si>
 </sst>
 </file>
@@ -1496,40 +1505,7 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1537,6 +1513,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1553,6 +1532,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1584,17 +1566,44 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Ezres" xfId="1" builtinId="3"/>
-    <cellStyle name="Hivatkozás" xfId="2" builtinId="8"/>
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Százalék" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1660,7 +1669,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="hu-HU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1976,7 +1985,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="hu-HU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2361,7 +2370,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="hu-HU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2677,7 +2686,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="hu-HU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3110,14 +3119,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3587,122 +3596,128 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="17" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="17" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="66"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="65"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
+      <c r="C2" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
+      <c r="C3" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="65"/>
     </row>
-    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="C4" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="65"/>
     </row>
-    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="65"/>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="65"/>
     </row>
-    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="65"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="65"/>
     </row>
-    <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65"/>
-      <c r="B7" s="111" t="str">
+      <c r="B7" s="102" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 50 pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="65"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="65"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3713,7 +3728,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="65"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="65"/>
       <c r="B9" s="24" t="s">
         <v>52</v>
@@ -3726,56 +3741,56 @@
       <c r="H9" s="1"/>
       <c r="I9" s="65"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="65"/>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="42">
         <f>COUNTA(Irányelvek!B:B)-1</f>
         <v>47</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
       <c r="I10" s="65"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="65"/>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="98"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="42">
         <f>SUM(Irányelvek!I:I)</f>
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="65"/>
     </row>
-    <row r="12" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65"/>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="42">
         <v>50</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="65"/>
       <c r="B13" s="24" t="s">
         <v>50</v>
@@ -3788,12 +3803,12 @@
       <c r="H13" s="1"/>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="65"/>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="98"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="42" t="b">
         <f>IF(COUNTIFS(Irányelvek!D2:D48,"=1",Irányelvek!H2:H48,"=igaz")=19,TRUE,FALSE)</f>
         <v>0</v>
@@ -3804,26 +3819,26 @@
       <c r="H14" s="1"/>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="65"/>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="98"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="43">
         <f>SUM(Irányelvek!J2:J48)</f>
         <v>-95</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="99" t="str">
+      <c r="F15" s="106" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
         <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján elégtelen  érdemjegyet kapnál rá.</v>
       </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="65"/>
       <c r="B16" s="24" t="s">
         <v>51</v>
@@ -3836,57 +3851,57 @@
       <c r="H16" s="1"/>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="65"/>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="98"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="42" t="str">
         <f>IF(D26=TRUE,IF(COUNTIFS(Irányelvek!F2:F48,"=1",Irányelvek!H2:H48,"=igaz")=19,TRUE,FALSE),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="116" t="s">
+      <c r="F17" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="65"/>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="98"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="43" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!K2:K48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="65"/>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="43" t="str">
         <f>IF(D26=TRUE,D18+D27,"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="124"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="65"/>
       <c r="B20" s="24" t="s">
         <v>49</v>
@@ -3899,71 +3914,71 @@
       <c r="H20" s="1"/>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="65"/>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="98"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="44">
         <v>20</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="65"/>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="98"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="44">
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
       <c r="I22" s="65"/>
     </row>
-    <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="65"/>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="114"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="44" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="65"/>
     </row>
-    <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="65"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="98"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="43" t="str">
         <f>IF(D26,IF(ROUNDUP(20 - 0.71*D23,0)&gt;0,ROUNDUP(20 - 0.71*D23,0),0),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
       <c r="I24" s="65"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="65"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -3974,12 +3989,12 @@
       <c r="H25" s="13"/>
       <c r="I25" s="65"/>
     </row>
-    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="65"/>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="108"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="45" t="b">
         <v>0</v>
       </c>
@@ -3989,12 +4004,12 @@
       <c r="H26" s="46"/>
       <c r="I26" s="65"/>
     </row>
-    <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="65"/>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="106"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4002,12 +4017,12 @@
       <c r="H27" s="46"/>
       <c r="I27" s="65"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="65"/>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="97"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4015,18 +4030,18 @@
       <c r="H28" s="46"/>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="65"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="65"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
@@ -4040,17 +4055,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Mz7EfEDe6v8cDUz4TxEHDWHiqsbUlOKtpPmMASCpJrCgqIKcchwB59qyedMGM9nhDxctmLUFNc/7+3pzDxMfOQ==" saltValue="ufiuVYYMa4lem5kpeJ7gNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="F17:H19"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B12:C12"/>
@@ -4067,6 +4071,17 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
@@ -4127,25 +4142,25 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="51" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="52" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="57" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="51" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="52" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="33" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="57" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="14" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -4185,7 +4200,7 @@
       </c>
       <c r="N1" s="15"/>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -4218,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
         <f>A2+1</f>
         <v>2</v>
@@ -4252,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
         <f t="shared" ref="A4:A48" si="3">A3+1</f>
         <v>3</v>
@@ -4287,7 +4302,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4322,7 +4337,7 @@
       </c>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4359,7 +4374,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -4395,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -4429,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="82" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="82" customFormat="1" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="72">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -4463,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="139.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="139.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="71">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -4497,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -4531,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -4563,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -4595,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -4627,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="34">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -4659,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -4691,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -4723,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -4755,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -4787,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -4819,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -4851,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="34">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -4883,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="34">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -4915,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="34">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -4947,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -4979,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="83" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="83" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="72">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -5011,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="71">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -5043,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5075,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -5107,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="34">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -5139,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="34">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -5171,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -5203,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="34">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -5235,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -5267,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="83" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="83" customFormat="1" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="72">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -5299,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="71">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -5333,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="34">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -5365,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="34">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -5399,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="34">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -5431,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -5465,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -5497,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="83" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="83" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="72">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -5529,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A43" s="71">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -5563,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="34">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -5597,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="34">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -5631,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="34">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -5665,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -5701,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="11" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="11" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -5773,24 +5788,24 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -5815,7 +5830,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -5854,7 +5869,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>16</v>
@@ -5898,7 +5913,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -5942,7 +5957,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -5986,7 +6001,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -6030,7 +6045,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
@@ -6074,7 +6089,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
@@ -6119,7 +6134,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -6150,7 +6165,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6181,7 +6196,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6212,7 +6227,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6243,7 +6258,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6274,7 +6289,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6305,7 +6320,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6336,7 +6351,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6367,7 +6382,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6398,7 +6413,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6429,7 +6444,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6460,7 +6475,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6491,7 +6506,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6522,7 +6537,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6553,7 +6568,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6584,7 +6599,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6615,7 +6630,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6648,7 +6663,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -6679,7 +6694,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6710,7 +6725,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6741,7 +6756,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6772,7 +6787,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6803,7 +6818,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6834,7 +6849,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6865,7 +6880,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6896,7 +6911,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6927,7 +6942,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6958,7 +6973,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6989,7 +7004,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -7020,7 +7035,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -7051,7 +7066,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -7082,7 +7097,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7113,7 +7128,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -7144,7 +7159,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -7175,7 +7190,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -7206,7 +7221,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -7237,7 +7252,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -7268,7 +7283,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -7299,7 +7314,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -7330,7 +7345,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -7375,24 +7390,24 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7417,7 +7432,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -7456,7 +7471,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="str">
         <f>Irányelvek!B2</f>
@@ -7501,7 +7516,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -7545,7 +7560,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -7589,7 +7604,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -7633,7 +7648,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
@@ -7677,7 +7692,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
@@ -7722,7 +7737,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -7753,7 +7768,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -7784,7 +7799,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7815,7 +7830,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -7846,7 +7861,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7877,7 +7892,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -7908,7 +7923,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -7939,7 +7954,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7970,7 +7985,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8001,7 +8016,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8032,7 +8047,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8063,7 +8078,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8094,7 +8109,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8125,7 +8140,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8156,7 +8171,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8187,7 +8202,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8218,7 +8233,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8251,7 +8266,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8282,7 +8297,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -8313,7 +8328,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -8344,7 +8359,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8375,7 +8390,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -8406,7 +8421,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -8437,7 +8452,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -8468,7 +8483,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8499,7 +8514,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8530,7 +8545,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -8561,7 +8576,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8592,7 +8607,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8623,7 +8638,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8654,7 +8669,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8685,7 +8700,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8716,7 +8731,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8747,7 +8762,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8778,7 +8793,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8809,7 +8824,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -8840,7 +8855,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -8871,7 +8886,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -8902,7 +8917,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -8933,7 +8948,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -8978,24 +8993,24 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="12"/>
       <c r="C2" s="12">
         <f>Fedőlap!D11</f>
@@ -9003,7 +9018,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="19">
         <v>0.49</v>
       </c>
@@ -9024,7 +9039,7 @@
         <v>7.7142857142857144</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="19">
         <v>0.62</v>
       </c>
@@ -9040,7 +9055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="19">
         <v>0.75</v>
       </c>
@@ -9052,7 +9067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="19">
         <v>0.88</v>
       </c>
@@ -9064,7 +9079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="19">
         <v>1</v>
       </c>
@@ -9076,20 +9091,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
     </row>
   </sheetData>

--- a/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csabasoos/Desktop/elte/2. felev/web/beadando/honlap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csabi\Desktop\elte\2. felev\web\beadando\honlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936C546B-F49C-6D4F-AA69-43B55E85A8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E92592-452D-4E21-8BCE-25C495D9CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
   <si>
     <t>Neved:</t>
   </si>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>azxx1z@inf.elte.hu</t>
+  </si>
+  <si>
+    <t>urlap.html</t>
   </si>
 </sst>
 </file>
@@ -1600,10 +1603,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Ezres" xfId="1" builtinId="3"/>
+    <cellStyle name="Hivatkozás" xfId="2" builtinId="8"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Százalék" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1669,7 +1672,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hu-HU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1789,7 +1792,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1985,7 +1988,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hu-HU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2112,7 +2115,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2219,7 +2222,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17</c:v>
@@ -2370,7 +2373,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hu-HU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2686,7 +2689,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hu-HU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3119,14 +3122,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000"/>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3597,26 +3600,26 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" customWidth="1"/>
-    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="13" max="17" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
       <c r="B1" s="117" t="s">
         <v>106</v>
@@ -3632,7 +3635,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="65"/>
       <c r="B2" s="96" t="s">
         <v>0</v>
@@ -3647,7 +3650,7 @@
       <c r="H2" s="120"/>
       <c r="I2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="65"/>
       <c r="B3" s="96" t="s">
         <v>54</v>
@@ -3662,7 +3665,7 @@
       <c r="H3" s="120"/>
       <c r="I3" s="65"/>
     </row>
-    <row r="4" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="65"/>
       <c r="B4" s="96" t="s">
         <v>1</v>
@@ -3677,7 +3680,7 @@
       <c r="H4" s="120"/>
       <c r="I4" s="65"/>
     </row>
-    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="123" t="s">
         <v>88</v>
@@ -3690,7 +3693,7 @@
       <c r="H5" s="123"/>
       <c r="I5" s="65"/>
     </row>
-    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="100" t="s">
         <v>2</v>
@@ -3703,7 +3706,7 @@
       <c r="H6" s="101"/>
       <c r="I6" s="65"/>
     </row>
-    <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="102" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
@@ -3717,7 +3720,7 @@
       <c r="H7" s="103"/>
       <c r="I7" s="65"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="65"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3728,7 +3731,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="65"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="24" t="s">
         <v>52</v>
@@ -3741,7 +3744,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="65"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
       <c r="B10" s="99" t="s">
         <v>41</v>
@@ -3759,7 +3762,7 @@
       <c r="H10" s="121"/>
       <c r="I10" s="65"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="99" t="s">
         <v>34</v>
@@ -3775,7 +3778,7 @@
       <c r="H11" s="122"/>
       <c r="I11" s="65"/>
     </row>
-    <row r="12" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65"/>
       <c r="B12" s="99" t="s">
         <v>70</v>
@@ -3790,7 +3793,7 @@
       <c r="H12" s="122"/>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="24" t="s">
         <v>50</v>
@@ -3803,7 +3806,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="99" t="s">
         <v>57</v>
@@ -3819,7 +3822,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="99" t="s">
         <v>47</v>
@@ -3827,7 +3830,7 @@
       <c r="C15" s="99"/>
       <c r="D15" s="43">
         <f>SUM(Irányelvek!J2:J48)</f>
-        <v>-95</v>
+        <v>-64</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="106" t="str">
@@ -3838,7 +3841,7 @@
       <c r="H15" s="106"/>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
       <c r="B16" s="24" t="s">
         <v>51</v>
@@ -3851,7 +3854,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="99" t="s">
         <v>58</v>
@@ -3869,7 +3872,7 @@
       <c r="H17" s="110"/>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65"/>
       <c r="B18" s="99" t="s">
         <v>48</v>
@@ -3885,7 +3888,7 @@
       <c r="H18" s="113"/>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="B19" s="99" t="s">
         <v>56</v>
@@ -3901,7 +3904,7 @@
       <c r="H19" s="116"/>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
       <c r="B20" s="24" t="s">
         <v>49</v>
@@ -3914,7 +3917,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="99" t="s">
         <v>46</v>
@@ -3931,7 +3934,7 @@
       <c r="H21" s="107"/>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="65"/>
       <c r="B22" s="99" t="s">
         <v>30</v>
@@ -3946,7 +3949,7 @@
       <c r="H22" s="107"/>
       <c r="I22" s="65"/>
     </row>
-    <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
       <c r="B23" s="104" t="s">
         <v>45</v>
@@ -3962,7 +3965,7 @@
       <c r="H23" s="107"/>
       <c r="I23" s="65"/>
     </row>
-    <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
       <c r="B24" s="99" t="s">
         <v>22</v>
@@ -3978,7 +3981,7 @@
       <c r="H24" s="107"/>
       <c r="I24" s="65"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="65"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -3989,7 +3992,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="65"/>
     </row>
-    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
       <c r="B26" s="98" t="s">
         <v>53</v>
@@ -4004,7 +4007,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="65"/>
     </row>
-    <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
       <c r="B27" s="124" t="s">
         <v>55</v>
@@ -4017,7 +4020,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="65"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
       <c r="B28" s="118" t="s">
         <v>29</v>
@@ -4030,7 +4033,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65"/>
       <c r="B29" s="97"/>
       <c r="C29" s="97"/>
@@ -4041,7 +4044,7 @@
       <c r="H29" s="97"/>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="65"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
@@ -4143,24 +4146,24 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="51" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="52" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="57" customWidth="1"/>
-    <col min="9" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="52" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="57" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="14" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -4200,7 +4203,7 @@
       </c>
       <c r="N1" s="15"/>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -4210,7 +4213,9 @@
       <c r="C2" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="50">
+        <v>1</v>
+      </c>
       <c r="E2" s="30"/>
       <c r="F2" s="50"/>
       <c r="G2" s="47"/>
@@ -4222,7 +4227,7 @@
       </c>
       <c r="J2" s="27">
         <f>IF(D2=1,I2,IF(H2=TRUE,-5,""))</f>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K2" s="28">
         <f>IF(F2=1,I2,IF(H2=TRUE,-5,""))</f>
@@ -4230,10 +4235,10 @@
       </c>
       <c r="L2" s="27">
         <f>IF(J2=K2,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <f>A2+1</f>
         <v>2</v>
@@ -4244,7 +4249,9 @@
       <c r="C3" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="50">
+        <v>1</v>
+      </c>
       <c r="E3" s="31"/>
       <c r="F3" s="50"/>
       <c r="G3" s="48"/>
@@ -4256,7 +4263,7 @@
       </c>
       <c r="J3" s="27">
         <f t="shared" ref="J3:J48" si="0">IF(D3=1,I3,IF(H3=TRUE,-5,""))</f>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K3" s="28">
         <f t="shared" ref="K3:K48" si="1">IF(F3=1,I3,IF(H3=TRUE,-5,""))</f>
@@ -4264,10 +4271,10 @@
       </c>
       <c r="L3" s="12">
         <f t="shared" ref="L3:L48" si="2">IF(J3=K3,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <f t="shared" ref="A4:A48" si="3">A3+1</f>
         <v>3</v>
@@ -4302,7 +4309,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4313,7 +4320,9 @@
       <c r="C5" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="50">
+        <v>1</v>
+      </c>
       <c r="E5" s="31"/>
       <c r="F5" s="50"/>
       <c r="G5" s="48"/>
@@ -4325,7 +4334,7 @@
       </c>
       <c r="J5" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K5" s="28">
         <f t="shared" si="1"/>
@@ -4333,11 +4342,11 @@
       </c>
       <c r="L5" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4348,9 +4357,11 @@
       <c r="C6" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="50">
+        <v>1</v>
+      </c>
       <c r="E6" s="31" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="48"/>
@@ -4362,7 +4373,7 @@
       </c>
       <c r="J6" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="28">
         <f t="shared" si="1"/>
@@ -4370,11 +4381,11 @@
       </c>
       <c r="L6" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -4410,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -4444,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="82" customFormat="1" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="82" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="72">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -4478,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="139.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="139.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -4512,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -4546,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -4578,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -4610,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -4642,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -4674,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -4706,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -4738,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -4770,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -4802,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -4834,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -4866,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -4898,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -4930,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -4962,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -4994,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="83" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="83" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="72">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -5026,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="71">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -5058,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5090,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -5122,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -5154,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -5186,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -5218,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -5250,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -5282,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="83" customFormat="1" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="83" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="72">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -5314,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="71">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -5348,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -5380,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -5414,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -5446,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -5480,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -5512,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="83" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="83" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="72">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -5544,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="71">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -5578,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -5612,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -5646,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -5680,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -5716,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="11" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" s="11" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -5788,16 +5799,16 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
         <v>42</v>
@@ -5830,7 +5841,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -5869,25 +5880,25 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3">
         <f>COUNTIFS(Irányelvek!B2:B48,"="&amp;B3,Irányelvek!D2:D48,1)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D7" si="0">E3-C3</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="64">
         <v>8</v>
       </c>
       <c r="F3" s="9">
         <f>C3/E3</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -5913,7 +5924,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -5957,7 +5968,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -6001,7 +6012,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -6045,7 +6056,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
@@ -6089,18 +6100,18 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="7">
         <f>SUM(C3:C7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(D3:D7)</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="7">
         <f>SUM(E3:E7)</f>
@@ -6108,7 +6119,7 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5106382978723402E-2</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6134,7 +6145,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -6165,7 +6176,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6196,7 +6207,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6227,7 +6238,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6258,7 +6269,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6289,7 +6300,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6320,7 +6331,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6351,7 +6362,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6382,7 +6393,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6413,7 +6424,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6444,7 +6455,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6475,7 +6486,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6506,7 +6517,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6537,7 +6548,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6568,7 +6579,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6599,7 +6610,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6630,7 +6641,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6663,7 +6674,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -6694,7 +6705,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6725,7 +6736,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6756,7 +6767,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6787,7 +6798,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6818,7 +6829,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6849,7 +6860,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6880,7 +6891,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6911,7 +6922,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6942,7 +6953,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6973,7 +6984,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -7004,7 +7015,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -7035,7 +7046,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -7066,7 +7077,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -7097,7 +7108,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7128,7 +7139,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -7159,7 +7170,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -7190,7 +7201,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -7221,7 +7232,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -7252,7 +7263,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -7283,7 +7294,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -7314,7 +7325,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -7345,7 +7356,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -7390,16 +7401,16 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
         <v>43</v>
@@ -7432,7 +7443,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -7471,7 +7482,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="str">
         <f>Irányelvek!B2</f>
@@ -7516,7 +7527,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -7560,7 +7571,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -7604,7 +7615,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -7648,7 +7659,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
@@ -7692,7 +7703,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
@@ -7737,7 +7748,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -7768,7 +7779,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -7799,7 +7810,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7830,7 +7841,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -7861,7 +7872,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7892,7 +7903,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -7923,7 +7934,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -7954,7 +7965,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7985,7 +7996,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8016,7 +8027,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8047,7 +8058,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8078,7 +8089,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8109,7 +8120,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8140,7 +8151,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8171,7 +8182,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8202,7 +8213,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8233,7 +8244,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8266,7 +8277,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8297,7 +8308,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -8328,7 +8339,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -8359,7 +8370,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8390,7 +8401,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -8421,7 +8432,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -8452,7 +8463,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -8483,7 +8494,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8514,7 +8525,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8545,7 +8556,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -8576,7 +8587,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8607,7 +8618,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8638,7 +8649,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8669,7 +8680,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8700,7 +8711,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8731,7 +8742,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8762,7 +8773,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8793,7 +8804,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8824,7 +8835,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -8855,7 +8866,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -8886,7 +8897,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -8917,7 +8928,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -8948,7 +8959,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -8993,24 +9004,24 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="12">
         <f>Fedőlap!D11</f>
@@ -9018,7 +9029,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
         <v>0.49</v>
       </c>
@@ -9039,7 +9050,7 @@
         <v>7.7142857142857144</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
         <v>0.62</v>
       </c>
@@ -9055,7 +9066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
         <v>0.75</v>
       </c>
@@ -9067,7 +9078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
         <v>0.88</v>
       </c>
@@ -9079,7 +9090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
         <v>1</v>
       </c>
@@ -9091,20 +9102,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
     </row>
   </sheetData>

--- a/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csabi\Desktop\elte\2. felev\web\beadando\honlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E92592-452D-4E21-8BCE-25C495D9CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E472B0E9-FBF0-49F3-A71B-5C28D461C5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
   <si>
     <t>Neved:</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Kurzus követelmény</t>
-  </si>
-  <si>
-    <t>írd ide hogy melyik oldalon van, és mit csinál a script</t>
   </si>
   <si>
     <t>írd ide , hogy melyik oldal</t>
@@ -623,6 +620,12 @@
   </si>
   <si>
     <t>urlap.html</t>
+  </si>
+  <si>
+    <t>index.html, kontraszt váltás</t>
+  </si>
+  <si>
+    <t>style.css</t>
   </si>
 </sst>
 </file>
@@ -1509,6 +1512,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1516,9 +1553,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1535,9 +1569,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1568,34 +1599,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1792,19 +1795,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.41176470588235292</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,19 +2118,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,19 +2225,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3621,18 +3624,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
-      <c r="B1" s="117" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="B1" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3640,29 +3643,29 @@
       <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="119" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="C2" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="65"/>
       <c r="B3" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="119" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
+        <v>53</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3670,54 +3673,54 @@
       <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="119" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
+      <c r="C4" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="123" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="B5" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
       <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="102" t="str">
+      <c r="B7" s="112" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 50 pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3734,7 +3737,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3747,7 +3750,7 @@
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
       <c r="B10" s="99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="99"/>
       <c r="D10" s="42">
@@ -3755,17 +3758,17 @@
         <v>47</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
+      <c r="F10" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="99"/>
       <c r="D11" s="42">
@@ -3773,30 +3776,30 @@
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65"/>
       <c r="B12" s="99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="99"/>
       <c r="D12" s="42">
         <v>50</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -3809,7 +3812,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="99"/>
       <c r="D14" s="42" t="b">
@@ -3825,26 +3828,26 @@
     <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="99"/>
       <c r="D15" s="43">
         <f>SUM(Irányelvek!J2:J48)</f>
-        <v>-64</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="106" t="str">
+      <c r="F15" s="100" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
         <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján elégtelen  érdemjegyet kapnál rá.</v>
       </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
       <c r="B16" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -3857,7 +3860,7 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="99"/>
       <c r="D17" s="42" t="str">
@@ -3865,17 +3868,17 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
+      <c r="F17" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="118"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65"/>
       <c r="B18" s="99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="99"/>
       <c r="D18" s="43" t="str">
@@ -3883,15 +3886,15 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="B19" s="99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="99"/>
       <c r="D19" s="43" t="str">
@@ -3899,15 +3902,15 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="116"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
       <c r="B20" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3920,55 +3923,55 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="99"/>
       <c r="D21" s="44">
         <v>20</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
+      <c r="F21" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="65"/>
       <c r="B22" s="99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="99"/>
       <c r="D22" s="44">
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
       <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
-      <c r="B23" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="105"/>
+      <c r="B23" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="115"/>
       <c r="D23" s="44" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
       <c r="B24" s="99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="99"/>
       <c r="D24" s="43" t="str">
@@ -3976,9 +3979,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3994,10 +3997,10 @@
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
-      <c r="B26" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="98"/>
+      <c r="B26" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="109"/>
       <c r="D26" s="45" t="b">
         <v>0</v>
       </c>
@@ -4009,10 +4012,10 @@
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
-      <c r="B27" s="124" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="125"/>
+      <c r="B27" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="107"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4022,10 +4025,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
-      <c r="B28" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="118"/>
+      <c r="B28" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="98"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4035,13 +4038,13 @@
     </row>
     <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4058,6 +4061,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Mz7EfEDe6v8cDUz4TxEHDWHiqsbUlOKtpPmMASCpJrCgqIKcchwB59qyedMGM9nhDxctmLUFNc/7+3pzDxMfOQ==" saltValue="ufiuVYYMa4lem5kpeJ7gNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="F17:H19"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B12:C12"/>
@@ -4074,17 +4088,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
@@ -4145,9 +4148,9 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4175,31 +4178,31 @@
         <v>9</v>
       </c>
       <c r="D1" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>33</v>
-      </c>
       <c r="J1" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="15"/>
     </row>
@@ -4211,7 +4214,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="50">
         <v>1</v>
@@ -4247,7 +4250,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="50">
         <v>1</v>
@@ -4283,9 +4286,11 @@
         <v>16</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="50"/>
+        <v>89</v>
+      </c>
+      <c r="D4" s="50">
+        <v>1</v>
+      </c>
       <c r="E4" s="31"/>
       <c r="F4" s="50"/>
       <c r="G4" s="48"/>
@@ -4297,7 +4302,7 @@
       </c>
       <c r="J4" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K4" s="28">
         <f t="shared" si="1"/>
@@ -4305,7 +4310,7 @@
       </c>
       <c r="L4" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="17"/>
     </row>
@@ -4318,7 +4323,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="50">
         <v>1</v>
@@ -4355,13 +4360,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="50">
         <v>1</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="48"/>
@@ -4394,11 +4399,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="50"/>
+        <v>81</v>
+      </c>
+      <c r="D7" s="50">
+        <v>1</v>
+      </c>
       <c r="E7" s="31" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="48"/>
@@ -4410,7 +4417,7 @@
       </c>
       <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="28">
         <f t="shared" si="1"/>
@@ -4418,7 +4425,7 @@
       </c>
       <c r="L7" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="11" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4430,9 +4437,11 @@
         <v>16</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="50"/>
+        <v>101</v>
+      </c>
+      <c r="D8" s="50">
+        <v>1</v>
+      </c>
       <c r="E8" s="31"/>
       <c r="F8" s="50"/>
       <c r="G8" s="48"/>
@@ -4444,7 +4453,7 @@
       </c>
       <c r="J8" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K8" s="28">
         <f t="shared" si="1"/>
@@ -4452,7 +4461,7 @@
       </c>
       <c r="L8" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="82" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4464,9 +4473,11 @@
         <v>16</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="75"/>
+        <v>67</v>
+      </c>
+      <c r="D9" s="75">
+        <v>1</v>
+      </c>
       <c r="E9" s="76"/>
       <c r="F9" s="75"/>
       <c r="G9" s="77"/>
@@ -4478,7 +4489,7 @@
       </c>
       <c r="J9" s="80">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="K9" s="81">
         <f t="shared" si="1"/>
@@ -4486,7 +4497,7 @@
       </c>
       <c r="L9" s="79">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="139.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4498,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="30"/>
@@ -4532,9 +4543,11 @@
         <v>12</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="50"/>
+        <v>79</v>
+      </c>
+      <c r="D11" s="50">
+        <v>1</v>
+      </c>
       <c r="E11" s="31"/>
       <c r="F11" s="50"/>
       <c r="G11" s="48"/>
@@ -4546,7 +4559,7 @@
       </c>
       <c r="J11" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K11" s="28">
         <f t="shared" si="1"/>
@@ -4554,7 +4567,7 @@
       </c>
       <c r="L11" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -4566,9 +4579,11 @@
         <v>12</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="50"/>
+        <v>58</v>
+      </c>
+      <c r="D12" s="50">
+        <v>1</v>
+      </c>
       <c r="E12" s="31"/>
       <c r="F12" s="50"/>
       <c r="G12" s="48"/>
@@ -4576,9 +4591,9 @@
       <c r="I12" s="12">
         <v>1</v>
       </c>
-      <c r="J12" s="27" t="str">
+      <c r="J12" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K12" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4586,7 +4601,7 @@
       </c>
       <c r="L12" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4598,9 +4613,11 @@
         <v>12</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="D13" s="50">
+        <v>1</v>
+      </c>
       <c r="E13" s="31"/>
       <c r="F13" s="50"/>
       <c r="G13" s="48"/>
@@ -4608,9 +4625,9 @@
       <c r="I13" s="12">
         <v>1</v>
       </c>
-      <c r="J13" s="27" t="str">
+      <c r="J13" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K13" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4618,7 +4635,7 @@
       </c>
       <c r="L13" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,7 +4647,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="31"/>
@@ -4662,7 +4679,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="31"/>
@@ -4694,9 +4711,11 @@
         <v>12</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="50"/>
+        <v>60</v>
+      </c>
+      <c r="D16" s="50">
+        <v>1</v>
+      </c>
       <c r="E16" s="31"/>
       <c r="F16" s="50"/>
       <c r="G16" s="48"/>
@@ -4704,9 +4723,9 @@
       <c r="I16" s="12">
         <v>1</v>
       </c>
-      <c r="J16" s="27" t="str">
+      <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K16" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4714,7 +4733,7 @@
       </c>
       <c r="L16" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4726,9 +4745,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="50"/>
+        <v>65</v>
+      </c>
+      <c r="D17" s="50">
+        <v>1</v>
+      </c>
       <c r="E17" s="31"/>
       <c r="F17" s="50"/>
       <c r="G17" s="48"/>
@@ -4736,9 +4757,9 @@
       <c r="I17" s="12">
         <v>1</v>
       </c>
-      <c r="J17" s="27" t="str">
+      <c r="J17" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K17" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4746,7 +4767,7 @@
       </c>
       <c r="L17" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4758,9 +4779,11 @@
         <v>12</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="50"/>
+        <v>18</v>
+      </c>
+      <c r="D18" s="50">
+        <v>1</v>
+      </c>
       <c r="E18" s="31"/>
       <c r="F18" s="50"/>
       <c r="G18" s="48"/>
@@ -4768,9 +4791,9 @@
       <c r="I18" s="12">
         <v>1</v>
       </c>
-      <c r="J18" s="27" t="str">
+      <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K18" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4778,7 +4801,7 @@
       </c>
       <c r="L18" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -4790,9 +4813,11 @@
         <v>12</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="D19" s="50">
+        <v>1</v>
+      </c>
       <c r="E19" s="31"/>
       <c r="F19" s="50"/>
       <c r="G19" s="48"/>
@@ -4800,9 +4825,9 @@
       <c r="I19" s="12">
         <v>1</v>
       </c>
-      <c r="J19" s="27" t="str">
+      <c r="J19" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K19" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4810,7 +4835,7 @@
       </c>
       <c r="L19" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.25">
@@ -4822,7 +4847,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="50"/>
       <c r="E20" s="31"/>
@@ -4854,7 +4879,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="31"/>
@@ -4886,7 +4911,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="50"/>
       <c r="E22" s="31"/>
@@ -4918,7 +4943,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="31"/>
@@ -4950,7 +4975,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="31"/>
@@ -4982,7 +5007,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="31"/>
@@ -5014,7 +5039,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="75"/>
       <c r="E26" s="76"/>
@@ -5046,7 +5071,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="30"/>
@@ -5078,7 +5103,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="31"/>
@@ -5110,7 +5135,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="31"/>
@@ -5206,7 +5231,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="31"/>
@@ -5238,7 +5263,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="30"/>
@@ -5270,7 +5295,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="31"/>
@@ -5302,7 +5327,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="75"/>
       <c r="E35" s="76"/>
@@ -5334,9 +5359,11 @@
         <v>11</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="50"/>
+        <v>75</v>
+      </c>
+      <c r="D36" s="50">
+        <v>1</v>
+      </c>
       <c r="E36" s="30"/>
       <c r="F36" s="50"/>
       <c r="G36" s="47"/>
@@ -5348,7 +5375,7 @@
       </c>
       <c r="J36" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="K36" s="28">
         <f t="shared" si="1"/>
@@ -5356,7 +5383,7 @@
       </c>
       <c r="L36" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5368,7 +5395,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="31"/>
@@ -5400,9 +5427,11 @@
         <v>11</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="50"/>
+        <v>74</v>
+      </c>
+      <c r="D38" s="50">
+        <v>1</v>
+      </c>
       <c r="E38" s="31"/>
       <c r="F38" s="50"/>
       <c r="G38" s="48"/>
@@ -5414,7 +5443,7 @@
       </c>
       <c r="J38" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K38" s="28">
         <f t="shared" si="1"/>
@@ -5422,7 +5451,7 @@
       </c>
       <c r="L38" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5434,7 +5463,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="31"/>
@@ -5466,9 +5495,11 @@
         <v>11</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="50"/>
+        <v>85</v>
+      </c>
+      <c r="D40" s="50">
+        <v>1</v>
+      </c>
       <c r="E40" s="31"/>
       <c r="F40" s="50"/>
       <c r="G40" s="48"/>
@@ -5480,7 +5511,7 @@
       </c>
       <c r="J40" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K40" s="28">
         <f t="shared" si="1"/>
@@ -5488,7 +5519,7 @@
       </c>
       <c r="L40" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.25">
@@ -5500,7 +5531,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="32"/>
@@ -5532,7 +5563,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="75"/>
       <c r="E42" s="76"/>
@@ -5561,12 +5592,14 @@
         <v>42</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="50"/>
+        <v>26</v>
+      </c>
+      <c r="D43" s="50">
+        <v>1</v>
+      </c>
       <c r="E43" s="30"/>
       <c r="F43" s="50"/>
       <c r="G43" s="47"/>
@@ -5578,7 +5611,7 @@
       </c>
       <c r="J43" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K43" s="28">
         <f t="shared" si="1"/>
@@ -5586,7 +5619,7 @@
       </c>
       <c r="L43" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5595,12 +5628,14 @@
         <v>43</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="50"/>
+        <v>93</v>
+      </c>
+      <c r="D44" s="50">
+        <v>1</v>
+      </c>
       <c r="E44" s="31"/>
       <c r="F44" s="50"/>
       <c r="G44" s="48"/>
@@ -5612,7 +5647,7 @@
       </c>
       <c r="J44" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K44" s="28">
         <f t="shared" si="1"/>
@@ -5620,7 +5655,7 @@
       </c>
       <c r="L44" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -5629,12 +5664,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="50"/>
+        <v>104</v>
+      </c>
+      <c r="D45" s="50">
+        <v>1</v>
+      </c>
       <c r="E45" s="31"/>
       <c r="F45" s="50"/>
       <c r="G45" s="48"/>
@@ -5646,7 +5683,7 @@
       </c>
       <c r="J45" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K45" s="28">
         <f t="shared" si="1"/>
@@ -5654,7 +5691,7 @@
       </c>
       <c r="L45" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5663,12 +5700,14 @@
         <v>45</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="50"/>
+        <v>92</v>
+      </c>
+      <c r="D46" s="50">
+        <v>1</v>
+      </c>
       <c r="E46" s="31"/>
       <c r="F46" s="50"/>
       <c r="G46" s="60"/>
@@ -5680,7 +5719,7 @@
       </c>
       <c r="J46" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K46" s="28">
         <f t="shared" si="1"/>
@@ -5688,7 +5727,7 @@
       </c>
       <c r="L46" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -5697,14 +5736,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="50"/>
       <c r="E47" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" s="50"/>
       <c r="G47" s="60"/>
@@ -5733,14 +5772,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="50"/>
+        <v>82</v>
+      </c>
+      <c r="D48" s="50">
+        <v>1</v>
+      </c>
       <c r="E48" s="31" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="60"/>
@@ -5752,7 +5793,7 @@
       </c>
       <c r="J48" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K48" s="28">
         <f t="shared" si="1"/>
@@ -5760,7 +5801,7 @@
       </c>
       <c r="L48" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5811,7 +5852,7 @@
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="127"/>
@@ -5887,18 +5928,18 @@
       </c>
       <c r="C3" s="3">
         <f>COUNTIFS(Irányelvek!B2:B48,"="&amp;B3,Irányelvek!D2:D48,1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D7" si="0">E3-C3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="64">
         <v>8</v>
       </c>
       <c r="F3" s="9">
         <f>C3/E3</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -5931,18 +5972,18 @@
       </c>
       <c r="C4" s="3">
         <f>COUNTIFS(Irányelvek!B3:B49,"="&amp;B4,Irányelvek!D3:D49,1)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" s="64">
         <v>17</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F8" si="1">C4/E4</f>
-        <v>0</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -6019,18 +6060,18 @@
       </c>
       <c r="C6" s="3">
         <f>COUNTIFS(Irányelvek!B5:B51,"="&amp;B6,Irányelvek!D5:D51,1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" s="64">
         <v>7</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6059,22 +6100,22 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!D6:D52,1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7" s="64">
         <v>6</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -6107,11 +6148,11 @@
       </c>
       <c r="C8" s="7">
         <f>SUM(C3:C7)</f>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(D3:D7)</f>
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E8" s="7">
         <f>SUM(E3:E7)</f>
@@ -6119,7 +6160,7 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>8.5106382978723402E-2</v>
+        <v>0.48936170212765956</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -7413,7 +7454,7 @@
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="127"/>
@@ -7662,7 +7703,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!F6:F52,1)</f>
@@ -9016,7 +9057,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -9037,7 +9078,7 @@
         <v>-100</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -9059,7 +9100,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <f>H3/2</f>
@@ -9075,7 +9116,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -9087,7 +9128,7 @@
         <v>76</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -9099,7 +9140,7 @@
         <v>89</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">

--- a/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csabi\Desktop\elte\2. felev\web\beadando\honlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E472B0E9-FBF0-49F3-A71B-5C28D461C5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053095E4-B7C9-48EB-9E98-8365E4A115A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -1512,40 +1512,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1553,6 +1519,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1569,6 +1538,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1599,6 +1571,34 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1798,16 +1798,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41176470588235292</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,16 +2121,16 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,16 +2228,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3602,7 +3602,7 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -3624,15 +3624,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
         <v>100</v>
@@ -3643,14 +3643,14 @@
       <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3658,14 +3658,14 @@
       <c r="B3" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3673,54 +3673,54 @@
       <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="112" t="str">
+      <c r="B7" s="102" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 50 pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3758,11 +3758,11 @@
         <v>47</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3776,9 +3776,9 @@
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3791,9 +3791,9 @@
         <v>50</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3817,7 +3817,7 @@
       <c r="C14" s="99"/>
       <c r="D14" s="42" t="b">
         <f>IF(COUNTIFS(Irányelvek!D2:D48,"=1",Irányelvek!H2:H48,"=igaz")=19,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3833,15 +3833,15 @@
       <c r="C15" s="99"/>
       <c r="D15" s="43">
         <f>SUM(Irányelvek!J2:J48)</f>
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="100" t="str">
+      <c r="F15" s="106" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
-        <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján elégtelen  érdemjegyet kapnál rá.</v>
-      </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
+        <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján jeles  érdemjegyet kapnál rá.</v>
+      </c>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,11 +3868,11 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="117" t="s">
+      <c r="F17" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3886,9 +3886,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="122"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3902,9 +3902,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="125"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3930,11 +3930,11 @@
         <v>20</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="100" t="s">
+      <c r="F21" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3947,25 +3947,25 @@
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
       <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="115"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="44" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3979,9 +3979,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
       <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3997,10 +3997,10 @@
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="109"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="45" t="b">
         <v>0</v>
       </c>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="107"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="98"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4038,13 +4038,13 @@
     </row>
     <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4061,17 +4061,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Mz7EfEDe6v8cDUz4TxEHDWHiqsbUlOKtpPmMASCpJrCgqIKcchwB59qyedMGM9nhDxctmLUFNc/7+3pzDxMfOQ==" saltValue="ufiuVYYMa4lem5kpeJ7gNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="F17:H19"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B12:C12"/>
@@ -4088,6 +4077,17 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
@@ -4150,7 +4150,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4511,7 +4511,9 @@
       <c r="C10" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="50">
+        <v>1</v>
+      </c>
       <c r="E10" s="30"/>
       <c r="F10" s="50"/>
       <c r="G10" s="47"/>
@@ -4523,7 +4525,7 @@
       </c>
       <c r="J10" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="K10" s="28">
         <f t="shared" si="1"/>
@@ -4531,7 +4533,7 @@
       </c>
       <c r="L10" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -4681,7 +4683,9 @@
       <c r="C15" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="50">
+        <v>1</v>
+      </c>
       <c r="E15" s="31"/>
       <c r="F15" s="50"/>
       <c r="G15" s="48"/>
@@ -4689,9 +4693,9 @@
       <c r="I15" s="12">
         <v>1</v>
       </c>
-      <c r="J15" s="27" t="str">
+      <c r="J15" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K15" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4699,7 +4703,7 @@
       </c>
       <c r="L15" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4747,9 +4751,7 @@
       <c r="C17" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="50">
-        <v>1</v>
-      </c>
+      <c r="D17" s="50"/>
       <c r="E17" s="31"/>
       <c r="F17" s="50"/>
       <c r="G17" s="48"/>
@@ -4757,9 +4759,9 @@
       <c r="I17" s="12">
         <v>1</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K17" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4767,7 +4769,7 @@
       </c>
       <c r="L17" s="12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4849,7 +4851,9 @@
       <c r="C20" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="50">
+        <v>1</v>
+      </c>
       <c r="E20" s="31"/>
       <c r="F20" s="50"/>
       <c r="G20" s="48"/>
@@ -4857,9 +4861,9 @@
       <c r="I20" s="12">
         <v>3</v>
       </c>
-      <c r="J20" s="27" t="str">
+      <c r="J20" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K20" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4867,7 +4871,7 @@
       </c>
       <c r="L20" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -4881,7 +4885,9 @@
       <c r="C21" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="50">
+        <v>1</v>
+      </c>
       <c r="E21" s="31"/>
       <c r="F21" s="50"/>
       <c r="G21" s="48"/>
@@ -4889,9 +4895,9 @@
       <c r="I21" s="12">
         <v>3</v>
       </c>
-      <c r="J21" s="27" t="str">
+      <c r="J21" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K21" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4899,7 +4905,7 @@
       </c>
       <c r="L21" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -4913,7 +4919,9 @@
       <c r="C22" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="50">
+        <v>1</v>
+      </c>
       <c r="E22" s="31"/>
       <c r="F22" s="50"/>
       <c r="G22" s="48"/>
@@ -4921,9 +4929,9 @@
       <c r="I22" s="12">
         <v>1</v>
       </c>
-      <c r="J22" s="27" t="str">
+      <c r="J22" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K22" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4931,7 +4939,7 @@
       </c>
       <c r="L22" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4945,7 +4953,9 @@
       <c r="C23" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="50">
+        <v>1</v>
+      </c>
       <c r="E23" s="31"/>
       <c r="F23" s="50"/>
       <c r="G23" s="48"/>
@@ -4953,9 +4963,9 @@
       <c r="I23" s="12">
         <v>1</v>
       </c>
-      <c r="J23" s="27" t="str">
+      <c r="J23" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K23" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4963,7 +4973,7 @@
       </c>
       <c r="L23" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4977,7 +4987,9 @@
       <c r="C24" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="50">
+        <v>1</v>
+      </c>
       <c r="E24" s="31"/>
       <c r="F24" s="50"/>
       <c r="G24" s="48"/>
@@ -4985,9 +4997,9 @@
       <c r="I24" s="12">
         <v>1</v>
       </c>
-      <c r="J24" s="27" t="str">
+      <c r="J24" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K24" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4995,7 +5007,7 @@
       </c>
       <c r="L24" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5009,7 +5021,9 @@
       <c r="C25" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="50">
+        <v>1</v>
+      </c>
       <c r="E25" s="31"/>
       <c r="F25" s="50"/>
       <c r="G25" s="48"/>
@@ -5017,9 +5031,9 @@
       <c r="I25" s="12">
         <v>1</v>
       </c>
-      <c r="J25" s="27" t="str">
+      <c r="J25" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K25" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5027,7 +5041,7 @@
       </c>
       <c r="L25" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="83" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5041,7 +5055,9 @@
       <c r="C26" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="75">
+        <v>1</v>
+      </c>
       <c r="E26" s="76"/>
       <c r="F26" s="75"/>
       <c r="G26" s="77"/>
@@ -5049,9 +5065,9 @@
       <c r="I26" s="79">
         <v>1</v>
       </c>
-      <c r="J26" s="80" t="str">
+      <c r="J26" s="80">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K26" s="81" t="str">
         <f t="shared" si="1"/>
@@ -5059,7 +5075,7 @@
       </c>
       <c r="L26" s="79">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5105,7 +5121,9 @@
       <c r="C28" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="50">
+        <v>1</v>
+      </c>
       <c r="E28" s="31"/>
       <c r="F28" s="50"/>
       <c r="G28" s="48"/>
@@ -5113,9 +5131,9 @@
       <c r="I28" s="12">
         <v>2</v>
       </c>
-      <c r="J28" s="27" t="str">
+      <c r="J28" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K28" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5123,7 +5141,7 @@
       </c>
       <c r="L28" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -5137,7 +5155,9 @@
       <c r="C29" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="50">
+        <v>1</v>
+      </c>
       <c r="E29" s="31"/>
       <c r="F29" s="50"/>
       <c r="G29" s="48"/>
@@ -5145,9 +5165,9 @@
       <c r="I29" s="12">
         <v>2</v>
       </c>
-      <c r="J29" s="27" t="str">
+      <c r="J29" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K29" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5155,7 +5175,7 @@
       </c>
       <c r="L29" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5169,7 +5189,9 @@
       <c r="C30" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="50">
+        <v>1</v>
+      </c>
       <c r="E30" s="31"/>
       <c r="F30" s="50"/>
       <c r="G30" s="48"/>
@@ -5177,9 +5199,9 @@
       <c r="I30" s="12">
         <v>1</v>
       </c>
-      <c r="J30" s="27" t="str">
+      <c r="J30" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K30" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5187,7 +5209,7 @@
       </c>
       <c r="L30" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5233,7 +5255,9 @@
       <c r="C32" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="50"/>
+      <c r="D32" s="50">
+        <v>1</v>
+      </c>
       <c r="E32" s="31"/>
       <c r="F32" s="50"/>
       <c r="G32" s="48"/>
@@ -5241,9 +5265,9 @@
       <c r="I32" s="12">
         <v>3</v>
       </c>
-      <c r="J32" s="27" t="str">
+      <c r="J32" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K32" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5251,7 +5275,7 @@
       </c>
       <c r="L32" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5265,7 +5289,9 @@
       <c r="C33" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="50">
+        <v>1</v>
+      </c>
       <c r="E33" s="30"/>
       <c r="F33" s="50"/>
       <c r="G33" s="47"/>
@@ -5273,9 +5299,9 @@
       <c r="I33" s="27">
         <v>1</v>
       </c>
-      <c r="J33" s="27" t="str">
+      <c r="J33" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K33" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5283,7 +5309,7 @@
       </c>
       <c r="L33" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -5297,7 +5323,9 @@
       <c r="C34" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="50">
+        <v>1</v>
+      </c>
       <c r="E34" s="31"/>
       <c r="F34" s="50"/>
       <c r="G34" s="48"/>
@@ -5305,9 +5333,9 @@
       <c r="I34" s="12">
         <v>1</v>
       </c>
-      <c r="J34" s="27" t="str">
+      <c r="J34" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K34" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5315,7 +5343,7 @@
       </c>
       <c r="L34" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="83" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5329,7 +5357,9 @@
       <c r="C35" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="75">
+        <v>1</v>
+      </c>
       <c r="E35" s="76"/>
       <c r="F35" s="75"/>
       <c r="G35" s="77"/>
@@ -5337,9 +5367,9 @@
       <c r="I35" s="79">
         <v>2</v>
       </c>
-      <c r="J35" s="80" t="str">
+      <c r="J35" s="80">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K35" s="81" t="str">
         <f t="shared" si="1"/>
@@ -5347,7 +5377,7 @@
       </c>
       <c r="L35" s="79">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5397,7 +5427,9 @@
       <c r="C37" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="50"/>
+      <c r="D37" s="50">
+        <v>1</v>
+      </c>
       <c r="E37" s="31"/>
       <c r="F37" s="50"/>
       <c r="G37" s="48"/>
@@ -5405,9 +5437,9 @@
       <c r="I37" s="12">
         <v>1</v>
       </c>
-      <c r="J37" s="27" t="str">
+      <c r="J37" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K37" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5415,7 +5447,7 @@
       </c>
       <c r="L37" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5533,7 +5565,9 @@
       <c r="C41" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="50"/>
+      <c r="D41" s="50">
+        <v>1</v>
+      </c>
       <c r="E41" s="32"/>
       <c r="F41" s="50"/>
       <c r="G41" s="49"/>
@@ -5541,9 +5575,9 @@
       <c r="I41" s="29">
         <v>5</v>
       </c>
-      <c r="J41" s="27" t="str">
+      <c r="J41" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="K41" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5551,7 +5585,7 @@
       </c>
       <c r="L41" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="83" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5565,7 +5599,9 @@
       <c r="C42" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="75"/>
+      <c r="D42" s="75">
+        <v>1</v>
+      </c>
       <c r="E42" s="76"/>
       <c r="F42" s="75"/>
       <c r="G42" s="77"/>
@@ -5573,9 +5609,9 @@
       <c r="I42" s="79">
         <v>2</v>
       </c>
-      <c r="J42" s="80" t="str">
+      <c r="J42" s="80">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K42" s="81" t="str">
         <f t="shared" si="1"/>
@@ -5583,7 +5619,7 @@
       </c>
       <c r="L42" s="79">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5741,7 +5777,9 @@
       <c r="C47" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="50"/>
+      <c r="D47" s="50">
+        <v>1</v>
+      </c>
       <c r="E47" s="31" t="s">
         <v>17</v>
       </c>
@@ -5755,7 +5793,7 @@
       </c>
       <c r="J47" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="K47" s="28">
         <f t="shared" si="1"/>
@@ -5763,7 +5801,7 @@
       </c>
       <c r="L47" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="11" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5972,18 +6010,18 @@
       </c>
       <c r="C4" s="3">
         <f>COUNTIFS(Irányelvek!B3:B49,"="&amp;B4,Irányelvek!D3:D49,1)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" s="64">
         <v>17</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F8" si="1">C4/E4</f>
-        <v>0.41176470588235292</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -6016,18 +6054,18 @@
       </c>
       <c r="C5" s="3">
         <f>COUNTIFS(Irányelvek!B4:B50,"="&amp;B5,Irányelvek!D4:D50,1)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E5" s="64">
         <v>9</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6060,18 +6098,18 @@
       </c>
       <c r="C6" s="3">
         <f>COUNTIFS(Irányelvek!B5:B51,"="&amp;B6,Irányelvek!D5:D51,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" s="64">
         <v>7</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6104,18 +6142,18 @@
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!D6:D52,1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="64">
         <v>6</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -6148,11 +6186,11 @@
       </c>
       <c r="C8" s="7">
         <f>SUM(C3:C7)</f>
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(D3:D7)</f>
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E8" s="7">
         <f>SUM(E3:E7)</f>
@@ -6160,7 +6198,7 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0.48936170212765956</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>

--- a/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csabi\Desktop\elte\2. felev\web\beadando\honlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053095E4-B7C9-48EB-9E98-8365E4A115A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3AA832-2DFE-4DF2-B081-B69DE869A25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
@@ -1512,6 +1512,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1519,9 +1553,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1538,9 +1569,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1571,34 +1599,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1798,13 +1798,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77777777777777779</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2121,13 +2121,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -2228,13 +2228,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3624,15 +3624,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
         <v>100</v>
@@ -3643,14 +3643,14 @@
       <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3658,14 +3658,14 @@
       <c r="B3" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3673,54 +3673,54 @@
       <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
       <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="102" t="str">
+      <c r="B7" s="112" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 50 pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3758,11 +3758,11 @@
         <v>47</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3776,9 +3776,9 @@
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3791,9 +3791,9 @@
         <v>50</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3833,15 +3833,15 @@
       <c r="C15" s="99"/>
       <c r="D15" s="43">
         <f>SUM(Irányelvek!J2:J48)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="106" t="str">
+      <c r="F15" s="100" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
         <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján jeles  érdemjegyet kapnál rá.</v>
       </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,11 +3868,11 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3886,9 +3886,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3902,9 +3902,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="116"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3930,11 +3930,11 @@
         <v>20</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="106" t="s">
+      <c r="F21" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3947,25 +3947,25 @@
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
       <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="105"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="44" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3979,9 +3979,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3997,10 +3997,10 @@
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="98"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="45" t="b">
         <v>0</v>
       </c>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="125"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="118"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4038,13 +4038,13 @@
     </row>
     <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4061,6 +4061,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Mz7EfEDe6v8cDUz4TxEHDWHiqsbUlOKtpPmMASCpJrCgqIKcchwB59qyedMGM9nhDxctmLUFNc/7+3pzDxMfOQ==" saltValue="ufiuVYYMa4lem5kpeJ7gNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="F17:H19"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B12:C12"/>
@@ -4077,17 +4088,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
@@ -4149,8 +4149,8 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4651,7 +4651,9 @@
       <c r="C14" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="50">
+        <v>1</v>
+      </c>
       <c r="E14" s="31"/>
       <c r="F14" s="50"/>
       <c r="G14" s="48"/>
@@ -4659,9 +4661,9 @@
       <c r="I14" s="12">
         <v>1</v>
       </c>
-      <c r="J14" s="27" t="str">
+      <c r="J14" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K14" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4669,7 +4671,7 @@
       </c>
       <c r="L14" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -4751,7 +4753,9 @@
       <c r="C17" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="50">
+        <v>1</v>
+      </c>
       <c r="E17" s="31"/>
       <c r="F17" s="50"/>
       <c r="G17" s="48"/>
@@ -4759,9 +4763,9 @@
       <c r="I17" s="12">
         <v>1</v>
       </c>
-      <c r="J17" s="27" t="str">
+      <c r="J17" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K17" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4769,7 +4773,7 @@
       </c>
       <c r="L17" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5089,7 +5093,9 @@
       <c r="C27" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="50"/>
+      <c r="D27" s="50">
+        <v>1</v>
+      </c>
       <c r="E27" s="30"/>
       <c r="F27" s="50"/>
       <c r="G27" s="47"/>
@@ -5097,9 +5103,9 @@
       <c r="I27" s="27">
         <v>2</v>
       </c>
-      <c r="J27" s="27" t="str">
+      <c r="J27" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K27" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5107,7 +5113,7 @@
       </c>
       <c r="L27" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5223,7 +5229,9 @@
       <c r="C31" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="50">
+        <v>1</v>
+      </c>
       <c r="E31" s="31"/>
       <c r="F31" s="50"/>
       <c r="G31" s="48"/>
@@ -5231,9 +5239,9 @@
       <c r="I31" s="12">
         <v>1</v>
       </c>
-      <c r="J31" s="27" t="str">
+      <c r="J31" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K31" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5241,7 +5249,7 @@
       </c>
       <c r="L31" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -5497,7 +5505,9 @@
       <c r="C39" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="50">
+        <v>1</v>
+      </c>
       <c r="E39" s="31"/>
       <c r="F39" s="50"/>
       <c r="G39" s="48"/>
@@ -5505,9 +5515,9 @@
       <c r="I39" s="12">
         <v>5</v>
       </c>
-      <c r="J39" s="27" t="str">
+      <c r="J39" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="K39" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5515,7 +5525,7 @@
       </c>
       <c r="L39" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6010,18 +6020,18 @@
       </c>
       <c r="C4" s="3">
         <f>COUNTIFS(Irányelvek!B3:B49,"="&amp;B4,Irányelvek!D3:D49,1)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="64">
         <v>17</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F8" si="1">C4/E4</f>
-        <v>0.88235294117647056</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -6054,18 +6064,18 @@
       </c>
       <c r="C5" s="3">
         <f>COUNTIFS(Irányelvek!B4:B50,"="&amp;B5,Irányelvek!D4:D50,1)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="64">
         <v>9</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>0.77777777777777779</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6098,18 +6108,18 @@
       </c>
       <c r="C6" s="3">
         <f>COUNTIFS(Irányelvek!B5:B51,"="&amp;B6,Irányelvek!D5:D51,1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="64">
         <v>7</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6186,11 +6196,11 @@
       </c>
       <c r="C8" s="7">
         <f>SUM(C3:C7)</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(D3:D7)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <f>SUM(E3:E7)</f>
@@ -6198,7 +6208,7 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0.8936170212765957</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>

--- a/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csabi\Desktop\elte\2. felev\web\beadando\honlap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csabi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3AA832-2DFE-4DF2-B081-B69DE869A25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC81A503-7EB1-4184-A40C-7CC193358463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Kurzus követelmény</t>
-  </si>
-  <si>
-    <t>írd ide , hogy melyik oldal</t>
   </si>
   <si>
     <t>Nincs olyan szöveg aláhúzva, ami nem tölt be link szerepet</t>
@@ -626,6 +623,9 @@
   </si>
   <si>
     <t>style.css</t>
+  </si>
+  <si>
+    <t>index.html, eletrajz.html, urlap.html</t>
   </si>
 </sst>
 </file>
@@ -1512,40 +1512,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1553,6 +1519,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1569,6 +1538,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1599,6 +1571,34 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3602,7 +3602,7 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -3624,18 +3624,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
-      <c r="B1" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="B1" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3643,29 +3643,29 @@
       <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
+      <c r="C2" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="65"/>
       <c r="B3" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
+        <v>52</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3673,54 +3673,54 @@
       <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
+      <c r="C4" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
+      <c r="B5" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="112" t="str">
+      <c r="B7" s="102" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 50 pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3737,7 +3737,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3750,7 +3750,7 @@
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
       <c r="B10" s="99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="99"/>
       <c r="D10" s="42">
@@ -3758,17 +3758,17 @@
         <v>47</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
+      <c r="F10" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="99"/>
       <c r="D11" s="42">
@@ -3776,30 +3776,30 @@
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65"/>
       <c r="B12" s="99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="99"/>
       <c r="D12" s="42">
         <v>50</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -3812,7 +3812,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="99"/>
       <c r="D14" s="42" t="b">
@@ -3828,7 +3828,7 @@
     <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="99"/>
       <c r="D15" s="43">
@@ -3836,18 +3836,18 @@
         <v>100</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="100" t="str">
+      <c r="F15" s="106" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
         <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján jeles  érdemjegyet kapnál rá.</v>
       </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
       <c r="B16" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -3860,7 +3860,7 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="99"/>
       <c r="D17" s="42" t="str">
@@ -3868,17 +3868,17 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
+      <c r="F17" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65"/>
       <c r="B18" s="99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="99"/>
       <c r="D18" s="43" t="str">
@@ -3886,15 +3886,15 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="122"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="B19" s="99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="99"/>
       <c r="D19" s="43" t="str">
@@ -3902,15 +3902,15 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="125"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
       <c r="B20" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3923,55 +3923,55 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="99"/>
       <c r="D21" s="44">
         <v>20</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
+      <c r="F21" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="65"/>
       <c r="B22" s="99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="99"/>
       <c r="D22" s="44">
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
       <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
-      <c r="B23" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="115"/>
+      <c r="B23" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="105"/>
       <c r="D23" s="44" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
       <c r="B24" s="99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="99"/>
       <c r="D24" s="43" t="str">
@@ -3979,9 +3979,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
       <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3997,10 +3997,10 @@
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
-      <c r="B26" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="109"/>
+      <c r="B26" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="98"/>
       <c r="D26" s="45" t="b">
         <v>0</v>
       </c>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
-      <c r="B27" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="107"/>
+      <c r="B27" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="125"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
-      <c r="B28" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="98"/>
+      <c r="B28" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="118"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4038,13 +4038,13 @@
     </row>
     <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4061,17 +4061,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Mz7EfEDe6v8cDUz4TxEHDWHiqsbUlOKtpPmMASCpJrCgqIKcchwB59qyedMGM9nhDxctmLUFNc/7+3pzDxMfOQ==" saltValue="ufiuVYYMa4lem5kpeJ7gNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="F17:H19"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B12:C12"/>
@@ -4088,6 +4077,17 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
@@ -4148,9 +4148,9 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4178,31 +4178,31 @@
         <v>9</v>
       </c>
       <c r="D1" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>32</v>
-      </c>
       <c r="J1" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N1" s="15"/>
     </row>
@@ -4214,7 +4214,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="50">
         <v>1</v>
@@ -4250,7 +4250,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="50">
         <v>1</v>
@@ -4286,7 +4286,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="50">
         <v>1</v>
@@ -4323,7 +4323,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="50">
         <v>1</v>
@@ -4360,13 +4360,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="50">
         <v>1</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="48"/>
@@ -4399,13 +4399,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="50">
         <v>1</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="48"/>
@@ -4437,7 +4437,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="50">
         <v>1</v>
@@ -4473,7 +4473,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="75">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="50">
         <v>1</v>
@@ -4545,7 +4545,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="50">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="50">
         <v>1</v>
@@ -4615,7 +4615,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="50">
         <v>1</v>
@@ -4649,7 +4649,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="50">
         <v>1</v>
@@ -4683,7 +4683,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="50">
         <v>1</v>
@@ -4717,7 +4717,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="50">
         <v>1</v>
@@ -4751,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="50">
         <v>1</v>
@@ -4785,7 +4785,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="50">
         <v>1</v>
@@ -4819,7 +4819,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="50">
         <v>1</v>
@@ -4853,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="50">
         <v>1</v>
@@ -4887,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="50">
         <v>1</v>
@@ -4921,7 +4921,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="50">
         <v>1</v>
@@ -4955,7 +4955,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="50">
         <v>1</v>
@@ -4989,7 +4989,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="50">
         <v>1</v>
@@ -5023,7 +5023,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="50">
         <v>1</v>
@@ -5057,7 +5057,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="75">
         <v>1</v>
@@ -5091,7 +5091,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="50">
         <v>1</v>
@@ -5125,7 +5125,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="50">
         <v>1</v>
@@ -5159,7 +5159,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="50">
         <v>1</v>
@@ -5261,7 +5261,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="50">
         <v>1</v>
@@ -5295,7 +5295,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="50">
         <v>1</v>
@@ -5329,7 +5329,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="50">
         <v>1</v>
@@ -5363,7 +5363,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="75">
         <v>1</v>
@@ -5397,7 +5397,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="50">
         <v>1</v>
@@ -5433,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="50">
         <v>1</v>
@@ -5467,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="50">
         <v>1</v>
@@ -5503,7 +5503,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="50">
         <v>1</v>
@@ -5537,7 +5537,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="50">
         <v>1</v>
@@ -5573,7 +5573,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" s="50">
         <v>1</v>
@@ -5607,7 +5607,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="75">
         <v>1</v>
@@ -5638,10 +5638,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43" s="50">
         <v>1</v>
@@ -5674,10 +5674,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="50">
         <v>1</v>
@@ -5710,10 +5710,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="50">
         <v>1</v>
@@ -5746,10 +5746,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="50">
         <v>1</v>
@@ -5782,16 +5782,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D47" s="50">
         <v>1</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="F47" s="50"/>
       <c r="G47" s="60"/>
@@ -5820,16 +5820,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="50">
         <v>1</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="60"/>
@@ -5900,7 +5900,7 @@
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="127"/>
@@ -6148,7 +6148,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!D6:D52,1)</f>
@@ -7502,7 +7502,7 @@
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="127"/>
@@ -7751,7 +7751,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!F6:F52,1)</f>
@@ -9105,7 +9105,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -9126,7 +9126,7 @@
         <v>-100</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -9148,7 +9148,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <f>H3/2</f>
@@ -9164,7 +9164,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -9176,7 +9176,7 @@
         <v>76</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -9188,7 +9188,7 @@
         <v>89</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">

--- a/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/2. felev/web/beadando/honlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csabi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csabi\Desktop\elte\2. felev\web\beadando\honlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC81A503-7EB1-4184-A40C-7CC193358463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014A22AE-D2EA-4320-A04F-47E99D0F9991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -1512,6 +1512,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1519,9 +1553,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1538,9 +1569,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1571,34 +1599,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3602,8 +3602,8 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3624,15 +3624,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
         <v>99</v>
@@ -3643,14 +3643,14 @@
       <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3658,14 +3658,14 @@
       <c r="B3" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3673,54 +3673,54 @@
       <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
       <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="102" t="str">
+      <c r="B7" s="112" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 50 pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3758,11 +3758,11 @@
         <v>47</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3776,9 +3776,9 @@
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3791,9 +3791,9 @@
         <v>50</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3836,12 +3836,12 @@
         <v>100</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="106" t="str">
+      <c r="F15" s="100" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
         <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján jeles  érdemjegyet kapnál rá.</v>
       </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,11 +3868,11 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3886,9 +3886,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3902,9 +3902,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="116"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3930,11 +3930,11 @@
         <v>20</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="106" t="s">
+      <c r="F21" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3947,25 +3947,25 @@
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
       <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="105"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="44" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3979,9 +3979,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3997,10 +3997,10 @@
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="98"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="45" t="b">
         <v>0</v>
       </c>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="125"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="118"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4038,13 +4038,13 @@
     </row>
     <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4061,6 +4061,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Mz7EfEDe6v8cDUz4TxEHDWHiqsbUlOKtpPmMASCpJrCgqIKcchwB59qyedMGM9nhDxctmLUFNc/7+3pzDxMfOQ==" saltValue="ufiuVYYMa4lem5kpeJ7gNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="F17:H19"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B12:C12"/>
@@ -4077,17 +4088,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
@@ -4148,9 +4148,9 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
